--- a/FileNoiDung.xlsx
+++ b/FileNoiDung.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\RFVNPC\Desktop\Ticktok\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tung\Desktop\Ticktok\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F04884C-1325-4697-B965-4AC8CB8CB783}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B85D8C6E-F12E-4DD7-A21C-8552DE57A4F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6330" yWindow="2280" windowWidth="21600" windowHeight="12075" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="48">
   <si>
     <t>Tiêu đề</t>
   </si>
@@ -94,18 +94,98 @@
   <si>
     <t>"Thi thể xếp thành hàng dài trong bệnh viện, nhà xác không còn chỗ", một bác sĩ giấu tên trong một bệnh viện ở N'Zerekore cho hay. Ông này cho biết có khoảng 100 người chết, nhưng một bác sĩ khác nói rằng có "vài chục người".
 Mọi việc bắt nguồn từ quyết định gây tranh cãi của trọng tài, khiến cổ động viên tràn xuống sân ẩu đả", một nhân chứng giấu tên nói với AFP</t>
+  </si>
+  <si>
+    <t>Screenshot_8.png</t>
+  </si>
+  <si>
+    <t>Núi Voi đầu nguồn Làng Nủ tiếp tục sạt lở</t>
+  </si>
+  <si>
+    <t>Bí thư Huyện ủy Bảo Yên Hoàng Quốc Bảo hôm nay cho biết chính quyền đã cắm biển cảnh báo cách núi Voi khoảng 500 m. Ngọn núi là nơi bắt nguồn vụ lũ quét Làng Nủ hôm 10/9, tới ngày 29/11 đất đá tiếp tục trượt lở gây tiếng nổ lớn. Khu vực này không còn người sinh sống hay canh tác.</t>
+  </si>
+  <si>
+    <t>Dự báo người Việt sắm Tết đơn giản</t>
+  </si>
+  <si>
+    <t>Screenshot_9.png</t>
+  </si>
+  <si>
+    <t>"Năm nay không khó như năm ngoái, tôi định chi tiêu những thứ cần thiết và mua thêm vài món trang trí nhà cửa, đồ ăn vặt dịp Tết nhưng không đi du lịch", chị Thanh Phương, 36 tuổi (quận Bình Thạnh, TP HCM) cho biết.</t>
+  </si>
+  <si>
+    <t>"Quân đội chúng tôi thiếu sức mạnh để làm việc đó. Đây là sự thật", Tổng thống Ukraine Volodymyr Zelensky cho biết trong cuộc phỏng vấn được công bố ngày 2/12, khi đề cập khả năng giành lại một số vùng lãnh thổ mà Nga kiểm soát, trong đó có bán đảo Crimea.</t>
+  </si>
+  <si>
+    <t>Screenshot_10.png</t>
+  </si>
+  <si>
+    <t>Tổng thống Syria nói phiến quân muốn 'vẽ lại bản đồ khu vực'</t>
+  </si>
+  <si>
+    <t>"Hoạt động leo thang của những kẻ khủng bố cho thấy mục tiêu sâu xa là chia rẽ khu vực, tách rời các quốc gia và vẽ lại bản đồ cho phù hợp với các mục tiêu của Mỹ và phương Tây", Tổng thống Syria Bashar al-Assad nói trong cuộc điện đàm với người đồng cấp Iran Masoud Pezeshkian ngày 2/12.</t>
+  </si>
+  <si>
+    <t>Screenshot_11.png</t>
+  </si>
+  <si>
+    <t>Screenshot_12.png</t>
+  </si>
+  <si>
+    <t>Thủ tướng: Vùng Đông Nam Bộ cần phấn đấu tăng trưởng 2 con số</t>
+  </si>
+  <si>
+    <t>Bà Rịa - Vũng TàuVùng Đông Nam Bộ cần hoàn thiện thể chế, tập trung giải ngân đầu tư công, bứt phá xuất khẩu và kích cầu tiêu dùng để đạt tăng trưởng 2 con số, theo lãnh đạo Chính phủ.</t>
+  </si>
+  <si>
+    <t>Screenshot_13.png</t>
+  </si>
+  <si>
+    <t>Thái Lan hối thúc Myanmar thả nhóm ngư dân lạc vào lãnh hải</t>
+  </si>
+  <si>
+    <t>Thái Lan triệu đại sứ Chit Swe để thúc đẩy Myanmar trả tự do cho các ngư dân bị hải quân nước này bắt khi đi lạc vào lãnh hải.</t>
+  </si>
+  <si>
+    <t>Screenshot_14.png</t>
+  </si>
+  <si>
+    <t>Phiến quân Syria đổ thêm dầu vào lò lửa Trung Đông</t>
+  </si>
+  <si>
+    <t>Sau 8 năm "nằm im thở khẽ", nhóm phiến quân Hay'et Tahrir al-Sham (HTS) cùng các lực lượng đồng minh ngày 27/11 bất ngờ mở đợt tiến công quy mô lớn vào Aleppo, thành phố lớn thứ hai của Syria, khiến quân đội chính phủ nước này hoàn toàn bất ngờ.</t>
+  </si>
+  <si>
+    <t>Screenshot_15.png</t>
+  </si>
+  <si>
+    <t>Lịch nghỉ Tết dương lịch năm 2025 của học sinh cả nước</t>
+  </si>
+  <si>
+    <t>Theo khung kế hoạch thời gian năm học 2024-2025 đối với giáo dục mầm non, giáo dục phổ thông và giáo dục thường xuyên, hầu hết các địa phương trên cả nước cho học sinh nghỉ Tết dương lịch trong 1 ngày. Cụ thể, ngày 1/1/2024</t>
+  </si>
+  <si>
+    <t>Ông Zelensky: 
+Ukraine không đủ sức giành lại toàn bộ lãnh thổ</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FF222222"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -128,10 +208,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyBorder="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -435,10 +518,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C8"/>
+  <dimension ref="A1:C16"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -536,6 +619,94 @@
         <v>21</v>
       </c>
     </row>
+    <row r="9" spans="1:3" ht="105" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="90" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="105" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="105" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="75" x14ac:dyDescent="0.25">
+      <c r="A13" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="90" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" ht="90" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="0.75" bottom="0.5" header="0.5" footer="0.75"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
